--- a/Hardware/pcb v2/bom/BOM.xlsx
+++ b/Hardware/pcb v2/bom/BOM.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\SUP\Hardware\pcb v2\bom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8100"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="179">
   <si>
     <t>Qty</t>
   </si>
@@ -533,26 +541,55 @@
   </si>
   <si>
     <t>Todos los condensadores tienen rated voltage mayor o igual a 10V</t>
+  </si>
+  <si>
+    <t>10.30mm</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>6.5mm</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>7.62mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -567,6 +604,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -579,6 +617,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -589,6 +628,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -601,6 +641,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -609,6 +650,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -617,6 +659,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -627,6 +670,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -635,6 +679,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -645,6 +690,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -655,6 +701,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -663,6 +710,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -673,80 +721,339 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.43"/>
-    <col customWidth="1" min="2" max="2" width="24.57"/>
-    <col customWidth="1" min="3" max="3" width="30.14"/>
-    <col customWidth="1" min="4" max="4" width="23.71"/>
-    <col customWidth="1" min="5" max="5" width="37.0"/>
-    <col customWidth="1" min="6" max="6" width="29.86"/>
-    <col customWidth="1" min="7" max="7" width="24.57"/>
-    <col customWidth="1" min="8" max="8" width="25.71"/>
-    <col customWidth="1" min="9" max="9" width="49.86"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,10 +1081,13 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="J1" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -792,9 +1102,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
@@ -817,10 +1127,13 @@
       <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="J3" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
@@ -841,9 +1154,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
@@ -864,9 +1177,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>32</v>
@@ -893,9 +1206,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>39</v>
@@ -916,9 +1229,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>44</v>
@@ -939,9 +1252,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>44</v>
@@ -968,9 +1281,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>56</v>
@@ -996,10 +1309,13 @@
       <c r="I10" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="J10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>63</v>
@@ -1026,9 +1342,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>69</v>
@@ -1055,9 +1371,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>74</v>
@@ -1080,9 +1396,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>77</v>
@@ -1105,9 +1421,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>80</v>
@@ -1134,9 +1450,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>88</v>
@@ -1159,9 +1475,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>91</v>
@@ -1184,9 +1500,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>94</v>
@@ -1213,9 +1529,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>100</v>
@@ -1242,9 +1558,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>108</v>
@@ -1271,9 +1587,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>115</v>
@@ -1300,9 +1616,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>123</v>
@@ -1329,9 +1645,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>130</v>
@@ -1340,7 +1656,7 @@
         <v>130</v>
       </c>
       <c r="D23" s="5">
-        <v>4.71511071E8</v>
+        <v>471511071</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>131</v>
@@ -1349,7 +1665,7 @@
         <v>132</v>
       </c>
       <c r="G23" s="8">
-        <v>4.71511071E8</v>
+        <v>471511071</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>133</v>
@@ -1358,9 +1674,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>134</v>
@@ -1387,9 +1703,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>141</v>
@@ -1416,9 +1732,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>147</v>
@@ -1441,8 +1757,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="str">
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <f>8/40</f>
         <v>0.2</v>
       </c>
@@ -1470,10 +1786,13 @@
       <c r="I27" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="J27" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>157</v>
@@ -1499,10 +1818,13 @@
       <c r="I28" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="J28" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>163</v>
@@ -1529,12 +1851,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>171</v>
       </c>
@@ -1547,7 +1869,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="20" t="s">
         <v>173</v>
@@ -1556,6 +1878,7 @@
       <c r="D32" s="22"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hardware/pcb v2/bom/BOM.xlsx
+++ b/Hardware/pcb v2/bom/BOM.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27217"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\SUP\Hardware\pcb v2\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/github/SUP/Hardware/pcb v2/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="176">
   <si>
     <t>Qty</t>
   </si>
@@ -108,9 +116,6 @@
     <t>C0603</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C10, C11, C12, C18</t>
-  </si>
-  <si>
     <t>1276-1005-1-ND</t>
   </si>
   <si>
@@ -132,12 +137,6 @@
     <t>TDK Corporation</t>
   </si>
   <si>
-    <t>C3216JB1A107M160AC</t>
-  </si>
-  <si>
-    <t>445-11682-1-ND</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -294,15 +293,6 @@
     <t>311-4.7KGRCT-ND</t>
   </si>
   <si>
-    <t>470pF</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>1276-1094-1-ND</t>
-  </si>
-  <si>
     <t>ADP3338AKCZ-3.3RL7</t>
   </si>
   <si>
@@ -556,13 +546,22 @@
   </si>
   <si>
     <t>7.62mm</t>
+  </si>
+  <si>
+    <t>TL8A0107M010C</t>
+  </si>
+  <si>
+    <t>718-1921-1-ND</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C10, C11, C12, C18, C6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -582,6 +581,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -727,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -754,6 +758,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,26 +1039,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="49.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1128,10 +1133,10 @@
         <v>19</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1154,9 +1159,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
@@ -1168,13 +1173,13 @@
         <v>28</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1182,201 +1187,198 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
+      <c r="G6" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="H7" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="H10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="G11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>21</v>
@@ -1385,122 +1387,126 @@
         <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="F15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="G15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="I15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1508,126 +1514,126 @@
         <v>94</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>94</v>
+      <c r="F18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
       <c r="B20" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="5" t="s">
         <v>124</v>
+      </c>
+      <c r="D22" s="5">
+        <v>471511071</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>125</v>
@@ -1635,54 +1641,54 @@
       <c r="F22" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="8">
+        <v>471511071</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="5">
-        <v>471511071</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="G23" s="8">
-        <v>471511071</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>133</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>135</v>
@@ -1703,9 +1709,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>141</v>
@@ -1714,59 +1720,62 @@
         <v>141</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
         <f>8/40</f>
         <v>0.2</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>152</v>
@@ -1774,8 +1783,8 @@
       <c r="E27" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>71</v>
+      <c r="F27" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>154</v>
@@ -1783,99 +1792,67 @@
       <c r="H27" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="6" t="s">
         <v>156</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
         <v>1</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="E28" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="F28" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="G28" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J28" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
-        <v>1</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="H28" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="I28" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="12" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="B30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+    <row r="31" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
